--- a/Sample_data/Sample_data_info.xlsx
+++ b/Sample_data/Sample_data_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adna.dumitrescu/Documents/Wyart_Postdoc/Data/OPSIN_testing_project/Opsin_Ephys_Analysis/Python_Scripts/Ephys_Analysis_Scripts/Sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ECE76D-B61B-9F49-B8AB-B9F390E2EF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1097F4-873F-1D41-986D-61130C51E1BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40500" yWindow="5020" windowWidth="27640" windowHeight="16940" xr2:uid="{913C01E9-D2E0-E646-ABC1-A78910E29ACD}"/>
+    <workbookView xWindow="41280" yWindow="6340" windowWidth="27640" windowHeight="16940" xr2:uid="{913C01E9-D2E0-E646-ABC1-A78910E29ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Opsin</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>186280022_1</t>
+  </si>
+  <si>
+    <t>Inhibitory_Opsin_Current_Clamp</t>
+  </si>
+  <si>
+    <t>2019_02_25_0035</t>
   </si>
 </sst>
 </file>
@@ -160,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,6 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF2C5FE-4173-7D47-98B0-FED9B75A37C6}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,6 +697,46 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2">
+        <v>543</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>520</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sample_data/Sample_data_info.xlsx
+++ b/Sample_data/Sample_data_info.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adna.dumitrescu/Documents/Wyart_Postdoc/Data/OPSIN_testing_project/Opsin_Ephys_Analysis/Python_Scripts/Ephys_Analysis_Scripts/Sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1097F4-873F-1D41-986D-61130C51E1BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC2241F-453D-A04B-B6BD-AA6ADC14E09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41280" yWindow="6340" windowWidth="27640" windowHeight="16940" xr2:uid="{913C01E9-D2E0-E646-ABC1-A78910E29ACD}"/>
+    <workbookView xWindow="45060" yWindow="3280" windowWidth="27640" windowHeight="16940" xr2:uid="{913C01E9-D2E0-E646-ABC1-A78910E29ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>Opsin</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>2019_02_25_0035</t>
+  </si>
+  <si>
+    <t>2019_08_01_0067</t>
+  </si>
+  <si>
+    <t>Inhibitory_Opsin_CC_Short_AP_Inhibit</t>
+  </si>
+  <si>
+    <t>189040010_1</t>
+  </si>
+  <si>
+    <t>Inhibitory_Opsin_CC_Long_AP_Inhibit</t>
   </si>
 </sst>
 </file>
@@ -498,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF2C5FE-4173-7D47-98B0-FED9B75A37C6}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,6 +728,9 @@
       <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -736,6 +751,61 @@
       <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2">
+        <v>520</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2">
+        <v>543</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sample_data/Sample_data_info.xlsx
+++ b/Sample_data/Sample_data_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adna.dumitrescu/Documents/Wyart_Postdoc/Data/OPSIN_testing_project/Opsin_Ephys_Analysis/Python_Scripts/Ephys_Analysis_Scripts/Sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC2241F-453D-A04B-B6BD-AA6ADC14E09F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36389803-4C88-0E4D-9FFD-D14C1273B67B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45060" yWindow="3280" windowWidth="27640" windowHeight="16940" xr2:uid="{913C01E9-D2E0-E646-ABC1-A78910E29ACD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Opsin</t>
   </si>
@@ -110,15 +110,6 @@
     <t>Excitatory_Opsin_Frequency_Current_Clamp</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0 </t>
-  </si>
-  <si>
-    <t>Frequency_target_tested</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>186280022_1</t>
   </si>
   <si>
@@ -138,6 +129,64 @@
   </si>
   <si>
     <t>Inhibitory_Opsin_CC_Long_AP_Inhibit</t>
+  </si>
+  <si>
+    <t>2019_01_25_0007</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LED pulse not recorded in volts. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Enter 1.2 and 1.8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>when script askes you to enter LED steps in V below. Add na for remaining pulses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Hz stimulation tested. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Enter 1.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>when script requests this information</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -510,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF2C5FE-4173-7D47-98B0-FED9B75A37C6}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,7 +574,7 @@
     <col min="7" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -545,10 +594,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -567,11 +616,9 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -590,11 +637,9 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -613,11 +658,9 @@
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -636,11 +679,9 @@
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -659,11 +700,9 @@
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -682,11 +721,9 @@
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -705,16 +742,16 @@
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -728,16 +765,14 @@
       <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -751,16 +786,14 @@
       <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -774,16 +807,14 @@
       <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -797,14 +828,33 @@
       <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>520</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G14" s="2"/>
     </row>
   </sheetData>

--- a/Sample_data/Sample_data_info.xlsx
+++ b/Sample_data/Sample_data_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adna.dumitrescu/Documents/Wyart_Postdoc/Data/OPSIN_testing_project/Opsin_Ephys_Analysis/Python_Scripts/Ephys_Analysis_Scripts/Sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36389803-4C88-0E4D-9FFD-D14C1273B67B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9045797-5AA4-F049-9AA6-1C5220AB2759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45060" yWindow="3280" windowWidth="27640" windowHeight="16940" xr2:uid="{913C01E9-D2E0-E646-ABC1-A78910E29ACD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Opsin</t>
   </si>
@@ -187,6 +187,18 @@
       </rPr>
       <t>when script requests this information</t>
     </r>
+  </si>
+  <si>
+    <t>2019_03_16_0000</t>
+  </si>
+  <si>
+    <t>Gapfree_AP_stim</t>
+  </si>
+  <si>
+    <t>Cheriff</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -230,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,10 +253,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,17 +577,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF2C5FE-4173-7D47-98B0-FED9B75A37C6}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="110.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -593,15 +609,15 @@
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2">
@@ -619,10 +635,10 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2">
@@ -640,10 +656,10 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2">
@@ -661,10 +677,10 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2">
@@ -682,10 +698,10 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="2">
@@ -703,10 +719,10 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
@@ -724,10 +740,10 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2">
@@ -747,10 +763,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="2">
@@ -768,10 +784,10 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2">
@@ -789,10 +805,10 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="2">
@@ -810,10 +826,10 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="2">
@@ -831,10 +847,10 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="2">
@@ -855,6 +871,24 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="2"/>
     </row>
   </sheetData>
